--- a/biology/Médecine/1616_en_santé_et_médecine/1616_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1616_en_santé_et_médecine/1616_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1616_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1616_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1616 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1616_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1616_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16-18 avril : William Harvey donne ses premières conférences au Collège royal de médecine de Londres[1].
-22 avril : Cervantès présente en mourant les symptômes du diabète[2].
-23 avril : Shakespeare meurt à Stratford, probablement d'une accident vasculaire cérébral[3] et, selon une tardive légende, après une nuit très arrosée en compagnie de Ben Jonson et de Michael Drayton[4].
-La variole est signalée « pour la première fois en Nouvelle-France en 1616 près de Tadoussac, premier poste de traite des fourrures de la colonie[5] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16-18 avril : William Harvey donne ses premières conférences au Collège royal de médecine de Londres.
+22 avril : Cervantès présente en mourant les symptômes du diabète.
+23 avril : Shakespeare meurt à Stratford, probablement d'une accident vasculaire cérébral et, selon une tardive légende, après une nuit très arrosée en compagnie de Ben Jonson et de Michael Drayton.
+La variole est signalée « pour la première fois en Nouvelle-France en 1616 près de Tadoussac, premier poste de traite des fourrures de la colonie ».</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1616_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1616_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>François Citois, médecin de Poitiers, plus tard au service de Richelieu, fait paraître son traité sur la colique du Poitou[6], maladie qu'il « attribue à l’excès de boisson des vins verts et acides[7] ».
-Fortunio Liceti (1577-1657), médecin et professeur de philosophie à  Padoue, fait paraître son trauté sur les monstres (De monstrorum caussis, natura et differentiis libri duo[8]).
-Jean Vigier, médecin à Castres, publie son Enchiridion anatomique, compilation à laquelle il joint une brève Histoire du fœtus[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>François Citois, médecin de Poitiers, plus tard au service de Richelieu, fait paraître son traité sur la colique du Poitou, maladie qu'il « attribue à l’excès de boisson des vins verts et acides ».
+Fortunio Liceti (1577-1657), médecin et professeur de philosophie à  Padoue, fait paraître son trauté sur les monstres (De monstrorum caussis, natura et differentiis libri duo).
+Jean Vigier, médecin à Castres, publie son Enchiridion anatomique, compilation à laquelle il joint une brève Histoire du fœtus.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1616_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1616_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>18 octobre : Nicholas Culpeper (mort en 1654), botaniste, herboriste, médecin et astrologue anglais[10].
-20 octobre : Thomas Bartholin (mort en 1680), médecin, mathématicien et théologien danois[11].
-23 novembre : John Wallis (mort en 1703), mathématicien, linguiste et phonéticien anglais, pionnier de l'éducation des sourds-muets[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>18 octobre : Nicholas Culpeper (mort en 1654), botaniste, herboriste, médecin et astrologue anglais.
+20 octobre : Thomas Bartholin (mort en 1680), médecin, mathématicien et théologien danois.
+23 novembre : John Wallis (mort en 1703), mathématicien, linguiste et phonéticien anglais, pionnier de l'éducation des sourds-muets.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1616_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1616_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,17 +626,19 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>19 février : Élie de Montalte (né en 1567), médecin de Marie de Médicis[13].
-23 mars : Mathias de l'Obel (né en 1538), médecin et botaniste flamand[14].
-25 juillet : Andreas Libavius (né en 1555), chimiste et médecin allemand[15].
-Guillaume de Baillou (né en 1538), « probablement, avec Jean Fernel, le médecin parisien le plus influent de l'époque moderne[16] ».
-Joost Balbian (de) (né en 1543), médecin et alchimiste néerlandais[17].
-Giulio Cesare Casseri né en 1552), anatomiste italien, le premier à décrire le polygone de Willis[18], surtout connu comme auteur de Tabulae anatomicae (1627) et d'un De Vocis auditusque organis (c.1600[19],[20]).
-Johannes Fabricius (né en 1587), fils de David Fabricius, devenu astronome, comme son père, après avoir renoncé à ses études de médecine[21].
-Urbain Hémard (né en 1548 (?)), chirurgien dentiste, auteur en 1582 d'une Recherche de la vraie anatomie des dents, ouvrage « considéré par les spécialistes comme le premier du genre écrit en France sur les dents[22] ».
-Pierre Milon (né en 1553), médecin des rois de France Henri IV et Louis XIII[23].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>19 février : Élie de Montalte (né en 1567), médecin de Marie de Médicis.
+23 mars : Mathias de l'Obel (né en 1538), médecin et botaniste flamand.
+25 juillet : Andreas Libavius (né en 1555), chimiste et médecin allemand.
+Guillaume de Baillou (né en 1538), « probablement, avec Jean Fernel, le médecin parisien le plus influent de l'époque moderne ».
+Joost Balbian (de) (né en 1543), médecin et alchimiste néerlandais.
+Giulio Cesare Casseri né en 1552), anatomiste italien, le premier à décrire le polygone de Willis, surtout connu comme auteur de Tabulae anatomicae (1627) et d'un De Vocis auditusque organis (c.1600,).
+Johannes Fabricius (né en 1587), fils de David Fabricius, devenu astronome, comme son père, après avoir renoncé à ses études de médecine.
+Urbain Hémard (né en 1548 (?)), chirurgien dentiste, auteur en 1582 d'une Recherche de la vraie anatomie des dents, ouvrage « considéré par les spécialistes comme le premier du genre écrit en France sur les dents ».
+Pierre Milon (né en 1553), médecin des rois de France Henri IV et Louis XIII.</t>
         </is>
       </c>
     </row>
